--- a/112-2/ADVANCED C PROGRAMMING/Midterm/mexam_grade_purdue.xlsx
+++ b/112-2/ADVANCED C PROGRAMMING/Midterm/mexam_grade_purdue.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ADVANCED C PROGRAMMING\Midterm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805D68E2-FAA1-4552-83CD-0BF5685F0825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mexam" sheetId="1" r:id="rId1"/>
+    <sheet name="grade" sheetId="2" r:id="rId1"/>
+    <sheet name="mexam" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">mexam!$E$1:$G$26</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">mexam!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">mexam!$E$1:$G$26</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">mexam!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="169">
   <si>
     <t>No</t>
   </si>
@@ -349,23 +356,693 @@
   </si>
   <si>
     <t>Starbucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -20
+Wrong in using iterator method (-5)
+Wrong assignment of string value (-5)
+Lack of insertion '\0' (-5)
+Wrong in returning string (-5)
+Question 2: -40
+Wrong in sorting linked list (-10)
+Wrongly print linked list and sorted linked list (-5)
+Wrong insert() (-10)
+Wrong get_data() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-5)
+Question 3: -40
+Incorrect read bitmap file and allocate color palette memory (-5)
+Without allocate memory for image data (-5)
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-10)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: great
+Question 2: -31
+Wrong in sorting linked list (-10)
+Wrong insert() (-10)
+Wrong get_data() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-1)
+Question 3: -40
+Incorrect read bitmap file and allocate color palette memory (-5)
+Without allocate memory for image data (-5)
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-10)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -7
+Wrong assignment of string value (-2)
+Lack of insertion '\0' (-5)
+Question 2: -37
+Wrong in sorting linked list (-10)
+Wrongly print linked list and sorted linked list (-2)
+Wrong insert() (-10)
+Wrong get_data() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-5)
+Question 3: -30
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-10)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -5
+Lack of insertion '\0' (-5)
+Question 2: -27
+Wrong in sorting linked list (-10)
+Wrongly print linked list and sorted linked list (-3)
+Wrong insert() (-3)
+Wrong get_data() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-1)
+Question 3: -4
+Incorrect portrait merge with frame (-2)
+Incorrect landscape merge with frame (-2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -14
+Wrong in using iterator method (-4)
+Wrong assignment of string value (-4)
+Lack of insertion '\0' (-4)
+Wrong in returning string (-2)
+Question 2: -37
+Wrong in sorting linked list (-10)
+Wrongly print linked list and sorted linked list (-2)
+Wrong insert() (-10)
+Wrong get_data() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-5)
+Question 3: -35
+Without allocate memory for image data (-5)
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-10)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: great
+Question 2: -2
+Wrong in sorting linked list (-2)
+Question 3: -15
+Incorrect portrait merge with frame (-10)
+Incorrect landscape merge with frame (-5)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -4
+Wrong in using iterator method (-2)
+Lack of insertion '\0' (-2)
+Question 2: -40
+Wrong in sorting linked list (-10)
+Wrongly print linked list and sorted linked list (-5)
+Wrong insert() (-10)
+Wrong get_data() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-5)
+Question 3: -40
+Incorrect read bitmap file and allocate color palette memory (-5)
+Without allocate memory for image data (-5)
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-10)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -2
+Lack of insertion '\0' (-2)
+Question 2: -7
+Wrong in sorting linked list (-5)
+Wrong swap_node() (-1)
+Wrong print_list() (-1)
+Question 3: great
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -10
+Wrong in using iterator method (-5)
+Lack of insertion '\0' (-5)
+Question 2: -35
+Wrong in sorting linked list (-10)
+Wrongly print linked list and sorted linked list (-5)
+Wrong insert() (-5)
+Wrong get_data() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-5)
+Question 3: -12
+Incorrect portrait merge with frame (-5)
+Incorrect landscape merge with frame (-7)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: great
+Question 2: -15
+Wrong in sorting linked list (-4)
+Wrong insert() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-1)
+Question 3: -24
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-7)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-7)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -2
+Wrong in using iterator method (-2)
+Question 2: -28
+Wrong in sorting linked list (-10)
+Wrongly print linked list and sorted linked list (-5)
+Wrong insert() (-7)
+Wrong swap_node() (-5)
+Wrong print_list() (-1)
+Question 3: -30
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-10)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -5
+Wrong in using iterator method (-5)
+Question 2: -24
+Wrong in sorting linked list (-10)
+Wrong insert() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-4)
+Question 3: -24
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-7)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-7)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -7
+Wrong in using iterator method (-2)
+Lack of insertion '\0' (-5)
+Question 2: -34
+Wrong in sorting linked list (-10)
+Wrong insert() (-10)
+Wrong get_data() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-4)
+Question 3: -30
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-10)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -20
+Wrong in using iterator method (-5)
+Wrong assignment of string value (-5)
+Lack of insertion '\0' (-5)
+Wrong in returning string (-5)
+Question 2: -37
+Wrong in sorting linked list (-10)
+Wrongly print linked list and sorted linked list (-2)
+Wrong insert() (-10)
+Wrong get_data() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-5)
+Question 3: -35
+Incorrect read bitmap file and allocate color palette memory (-5)
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-10)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -11
+Wrong in using iterator method (-4)
+Wrong assignment of string value (-2)
+Lack of insertion '\0' (-5)
+Question 2: -32
+Wrong in sorting linked list (-10)
+Wrong insert() (-10)
+Wrong get_data() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-2)
+Question 3: -18
+Incorrect horizontally mirrored for portrait (-2)
+Incorrect portrait merge with frame (-7)
+Incorrect vertically mirrored for landscape (-2)
+Incorrect landscape merge with frame (-7)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -20
+Wrong in using iterator method (-5)
+Wrong assignment of string value (-5)
+Lack of insertion '\0' (-5)
+Wrong in returning string (-5)
+Question 2: -40
+Wrong in sorting linked list (-10)
+Wrongly print linked list and sorted linked list (-5)
+Wrong insert() (-10)
+Wrong get_data() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-5)
+Question 3: -24
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-7)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-7)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -20
+Wrong in using iterator method (-5)
+Wrong assignment of string value (-5)
+Lack of insertion '\0' (-5)
+Wrong in returning string (-5)
+Question 2: -19
+Wrong in sorting linked list (-6)
+Wrongly print linked list and sorted linked list (-2)
+Wrong insert() (-5)
+Wrong swap_node() (-2)
+Wrong print_list() (-4)
+Question 3: -35
+Without allocate memory for image data (-5)
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-10)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -7
+Wrong in using iterator method (-2)
+Lack of insertion '\0' (-5)
+Question 2: -23
+Wrong in sorting linked list (-6)
+Wrongly print linked list and sorted linked list (-2)
+Wrong insert() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-5)
+Question 3: -4
+Incorrect portrait merge with frame (-2)
+Incorrect landscape merge with frame (-2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -9
+Wrong in using iterator method (-2)
+Wrong assignment of string value (-2)
+Lack of insertion '\0' (-5)
+Question 2: -40
+Wrong in sorting linked list (-10)
+Wrongly print linked list and sorted linked list (-5)
+Wrong insert() (-10)
+Wrong get_data() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-5)
+Question 3: -30
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-10)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: -7
+Wrong in using iterator method (-2)
+Lack of insertion '\0' (-5)
+Question 2: -28
+Wrong in sorting linked list (-7)
+Wrongly print linked list and sorted linked list (-2)
+Wrong insert() (-5)
+Wrong get_data() (-5)
+Wrong swap_node() (-5)
+Wrong print_list() (-4)
+Question 3: -35
+Incorrect read bitmap file and allocate color palette memory (-5)
+Incorrect horizontally mirrored for portrait (-5)
+Incorrect portrait merge with frame (-10)
+Incorrect vertically mirrored for landscape (-5)
+Incorrect landscape merge with frame (-10)
+</t>
+  </si>
+  <si>
+    <t>assgn1</t>
+  </si>
+  <si>
+    <t>assgn2</t>
+  </si>
+  <si>
+    <t>assgn3</t>
+  </si>
+  <si>
+    <t>assgn4</t>
+  </si>
+  <si>
+    <t>assgn5</t>
+  </si>
+  <si>
+    <t>assgn6</t>
+  </si>
+  <si>
+    <t>quiz1</t>
+  </si>
+  <si>
+    <t>quiz2</t>
+  </si>
+  <si>
+    <t>mexam</t>
+  </si>
+  <si>
+    <t>fexam</t>
+  </si>
+  <si>
+    <t>assgns</t>
+  </si>
+  <si>
+    <t>quizzes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+      </rPr>
+      <t>平時</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+      </rPr>
+      <t>期中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MingLiU"/>
+        <family val="3"/>
+      </rPr>
+      <t>期末</t>
+    </r>
+  </si>
+  <si>
+    <t>orignal</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+      </rPr>
+      <t>李　羽</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+      </rPr>
+      <t>楊博欽</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+      </rPr>
+      <t>佘峻宇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>黃品喆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+      </rPr>
+      <t>許博琮</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+      </rPr>
+      <t>楊智臣</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>陳宣妤</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>黃政睿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>張宇呈</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>李皓鈞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>劉哲瑋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>謝柏尉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>邱畇諠</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>陳映聿</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>蔡睿宇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>陳彥勻</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>曾語晨</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>曾郁珊</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>王子宸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>葉緯圻</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>張子桓</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>王崧喻</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>何柏勳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>王祺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+      </rPr>
+      <t>李宇恩</t>
+    </r>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -373,34 +1050,35 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微軟正黑體"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -408,352 +1086,57 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MingLiU"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="PMingLiu"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -789,411 +1172,295 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1204,7 +1471,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1232,154 +1499,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1629,36 +1782,1212 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D881DB2-1C58-46FA-9488-511D56094344}">
+  <dimension ref="A1:V27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.149999999999999"/>
+  <cols>
+    <col min="1" max="1" width="3.86328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="19">
+        <v>90</v>
+      </c>
+      <c r="G2" s="19">
+        <v>90</v>
+      </c>
+      <c r="H2" s="19">
+        <v>0</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22">
+        <v>0</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="19">
+        <v>80</v>
+      </c>
+      <c r="G3" s="19">
+        <v>100</v>
+      </c>
+      <c r="H3" s="19">
+        <v>96</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22">
+        <v>29</v>
+      </c>
+      <c r="O3" s="22"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="19">
+        <v>95</v>
+      </c>
+      <c r="G4" s="19">
+        <v>100</v>
+      </c>
+      <c r="H4" s="19">
+        <v>100</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22">
+        <v>26</v>
+      </c>
+      <c r="O4" s="22"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="19">
+        <v>89</v>
+      </c>
+      <c r="G5" s="19">
+        <v>95</v>
+      </c>
+      <c r="H5" s="19">
+        <v>71</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="19">
+        <v>84</v>
+      </c>
+      <c r="G6" s="19">
+        <v>90</v>
+      </c>
+      <c r="H6" s="19">
+        <v>100</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="22"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="19">
+        <v>100</v>
+      </c>
+      <c r="G7" s="19">
+        <v>100</v>
+      </c>
+      <c r="H7" s="19">
+        <v>95</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22">
+        <v>64</v>
+      </c>
+      <c r="O7" s="22"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="19">
+        <v>75</v>
+      </c>
+      <c r="G8" s="19">
+        <v>100</v>
+      </c>
+      <c r="H8" s="19">
+        <v>95</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22">
+        <v>14</v>
+      </c>
+      <c r="O8" s="22"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="19">
+        <v>100</v>
+      </c>
+      <c r="G9" s="19">
+        <v>100</v>
+      </c>
+      <c r="H9" s="19">
+        <v>95</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
+        <v>83</v>
+      </c>
+      <c r="O9" s="22"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="19">
+        <v>86</v>
+      </c>
+      <c r="G10" s="19">
+        <v>91</v>
+      </c>
+      <c r="H10" s="19">
+        <v>71</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="O10" s="22"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="19">
+        <v>76</v>
+      </c>
+      <c r="G11" s="19">
+        <v>100</v>
+      </c>
+      <c r="H11" s="19">
+        <v>75</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22">
+        <v>16</v>
+      </c>
+      <c r="O11" s="22"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="19">
+        <v>99</v>
+      </c>
+      <c r="G12" s="19">
+        <v>100</v>
+      </c>
+      <c r="H12" s="19">
+        <v>100</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22">
+        <v>91</v>
+      </c>
+      <c r="O12" s="22"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="19">
+        <v>98</v>
+      </c>
+      <c r="G13" s="19">
+        <v>100</v>
+      </c>
+      <c r="H13" s="19">
+        <v>100</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22">
+        <v>43</v>
+      </c>
+      <c r="O13" s="22"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="19">
+        <v>100</v>
+      </c>
+      <c r="G14" s="19">
+        <v>100</v>
+      </c>
+      <c r="H14" s="19">
+        <v>95</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22">
+        <v>61</v>
+      </c>
+      <c r="O14" s="22"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="19">
+        <v>84</v>
+      </c>
+      <c r="G15" s="19">
+        <v>86</v>
+      </c>
+      <c r="H15" s="19">
+        <v>91</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22">
+        <v>40</v>
+      </c>
+      <c r="O15" s="22"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="19">
+        <v>80</v>
+      </c>
+      <c r="G16" s="19">
+        <v>100</v>
+      </c>
+      <c r="H16" s="19">
+        <v>96</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22">
+        <v>47</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="19">
+        <v>94</v>
+      </c>
+      <c r="G17" s="19">
+        <v>100</v>
+      </c>
+      <c r="H17" s="19">
+        <v>100</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22">
+        <v>16</v>
+      </c>
+      <c r="O17" s="22"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="19">
+        <v>90</v>
+      </c>
+      <c r="G18" s="19">
+        <v>96</v>
+      </c>
+      <c r="H18" s="19">
+        <v>95</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22">
+        <v>29</v>
+      </c>
+      <c r="O18" s="22"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="19">
+        <v>74</v>
+      </c>
+      <c r="G19" s="19">
+        <v>80</v>
+      </c>
+      <c r="H19" s="19">
+        <v>100</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22">
+        <v>8</v>
+      </c>
+      <c r="O19" s="22"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="19">
+        <v>93</v>
+      </c>
+      <c r="G20" s="19">
+        <v>96</v>
+      </c>
+      <c r="H20" s="19">
+        <v>100</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22">
+        <v>39</v>
+      </c>
+      <c r="O20" s="22"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="19">
+        <v>83</v>
+      </c>
+      <c r="G21" s="19">
+        <v>98</v>
+      </c>
+      <c r="H21" s="19">
+        <v>100</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22">
+        <v>16</v>
+      </c>
+      <c r="O21" s="22"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="19">
+        <v>93</v>
+      </c>
+      <c r="G22" s="19">
+        <v>100</v>
+      </c>
+      <c r="H22" s="19">
+        <v>100</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22">
+        <v>26</v>
+      </c>
+      <c r="O22" s="22"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="19">
+        <v>90</v>
+      </c>
+      <c r="G23" s="19">
+        <v>100</v>
+      </c>
+      <c r="H23" s="19">
+        <v>100</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22">
+        <v>66</v>
+      </c>
+      <c r="O23" s="22"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="19">
+        <v>89</v>
+      </c>
+      <c r="G24" s="19">
+        <v>100</v>
+      </c>
+      <c r="H24" s="19">
+        <v>100</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22">
+        <v>21</v>
+      </c>
+      <c r="O24" s="22"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="19">
+        <v>83</v>
+      </c>
+      <c r="G25" s="19">
+        <v>100</v>
+      </c>
+      <c r="H25" s="19">
+        <v>100</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22">
+        <v>0</v>
+      </c>
+      <c r="O25" s="22"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="19">
+        <v>80</v>
+      </c>
+      <c r="G26" s="19">
+        <v>80</v>
+      </c>
+      <c r="H26" s="19">
+        <v>95</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22">
+        <v>30</v>
+      </c>
+      <c r="O26" s="22"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="25">
+        <f>AVERAGE(F2:F26)</f>
+        <v>88.2</v>
+      </c>
+      <c r="G27" s="25">
+        <f>AVERAGE(G2:G26)</f>
+        <v>96.08</v>
+      </c>
+      <c r="H27" s="25">
+        <f>AVERAGE(H2:H26)</f>
+        <v>90.8</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="25">
+        <f>AVERAGE(N2:N26)</f>
+        <v>30.6</v>
+      </c>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F19" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.36666666666667" defaultRowHeight="15.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.4"/>
   <cols>
-    <col min="1" max="1" width="4.90833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.36666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.18333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.45" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="60.5833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="3" customWidth="1"/>
-    <col min="8" max="32" width="9.725" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="9.36666666666667" style="2"/>
+    <col min="1" max="1" width="4.9296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.46484375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" style="3" customWidth="1"/>
+    <col min="8" max="32" width="9.73046875" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="9.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +3010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="307.5">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1697,10 +3026,14 @@
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="230.65">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1716,10 +3049,14 @@
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="246">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1735,10 +3072,14 @@
       <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="307.5">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1754,10 +3095,14 @@
       <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="307.5">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1773,10 +3118,14 @@
       <c r="E6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="199.9">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1792,10 +3141,14 @@
       <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" ht="17" spans="1:7">
+      <c r="F7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="292.14999999999998">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1811,10 +3164,14 @@
       <c r="E8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" ht="17" spans="1:7">
+      <c r="F8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="107.65">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1830,10 +3187,14 @@
       <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" ht="17" spans="1:7">
+      <c r="F9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="307.5">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1849,10 +3210,14 @@
       <c r="E10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" ht="17" spans="1:7">
+      <c r="F10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="276.75">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1868,10 +3233,14 @@
       <c r="E11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" ht="17" spans="1:7">
+      <c r="F11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="123">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1887,10 +3256,14 @@
       <c r="E12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" ht="17" spans="1:7">
+      <c r="F12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="215.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1906,10 +3279,14 @@
       <c r="E13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" ht="17" spans="1:7">
+      <c r="F13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="184.5">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1925,10 +3302,14 @@
       <c r="E14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" ht="17" spans="1:7">
+      <c r="F14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="215.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1944,10 +3325,14 @@
       <c r="E15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" ht="17" spans="1:7">
+      <c r="F15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="199.9">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1963,10 +3348,14 @@
       <c r="E16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" ht="17" spans="1:7">
+      <c r="F16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="276.75">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1982,10 +3371,14 @@
       <c r="E17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" ht="17" spans="1:7">
+      <c r="F17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="230.65">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2001,10 +3394,14 @@
       <c r="E18" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" ht="17" spans="1:7">
+      <c r="F18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="292.14999999999998">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2020,10 +3417,14 @@
       <c r="E19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" ht="17" spans="1:7">
+      <c r="F19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="246">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2039,10 +3440,14 @@
       <c r="E20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" ht="17" spans="1:7">
+      <c r="F20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="276.75">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2058,10 +3463,14 @@
       <c r="E21" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" ht="17" spans="1:7">
+      <c r="F21" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="276.75">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2077,10 +3486,14 @@
       <c r="E22" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" ht="17" spans="1:7">
+      <c r="F22" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="199.9">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2096,10 +3509,14 @@
       <c r="E23" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" ht="17" spans="1:7">
+      <c r="F23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="261.39999999999998">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2115,10 +3532,14 @@
       <c r="E24" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" ht="17" spans="1:7">
+      <c r="F24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="307.5">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2134,10 +3555,14 @@
       <c r="E25" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" ht="17" spans="1:7">
+      <c r="F25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="261.39999999999998">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2153,16 +3578,21 @@
       <c r="E26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="7">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
     <sortCondition ref="A2"/>
   </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1.57430555555556" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
+  <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1.5743055555555601" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"times New Roman"&amp;14&amp;BFCU-Purdue 2+2 ECE Program
 Spring Semester, 2024
